--- a/Combined.xlsx
+++ b/Combined.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="4412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="4725">
   <si>
     <t>Adhola</t>
   </si>
@@ -14454,12 +14453,974 @@
   <si>
     <t>Change site language</t>
   </si>
+  <si>
+    <t>GIMA BAIBUL WACHO</t>
+  </si>
+  <si>
+    <t>WHAT THE BIBLE SAYS</t>
+  </si>
+  <si>
+    <t>Â bino yweyo pigi waŋjo</t>
+  </si>
+  <si>
+    <t>will wipe out every tear from their eyes,</t>
+  </si>
+  <si>
+    <t>Tho odoko k’obedi, kosa rembo, kosa ywak kosa litho,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and death will be no more, neither will mourning nor outcry nor pain be anymore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rupiri gikipiny macon jotieko leny woko</t>
+  </si>
+  <si>
+    <t>The former things have passed away</t>
+  </si>
+  <si>
+    <t>KWO OCHALE NEDI I HONGO MABINO?</t>
+  </si>
+  <si>
+    <t>WHAT THAT CAN MEAN FOR YOU</t>
+  </si>
+  <si>
+    <t>Waletimo tich maber ma miyo wan kisangala</t>
+  </si>
+  <si>
+    <t>Meaningful and satisfying work</t>
+  </si>
+  <si>
+    <t>Two kodi chandirok kobedi</t>
+  </si>
+  <si>
+    <t>No more sickness or suffering of any kind</t>
+  </si>
+  <si>
+    <t>Walebedo kodi jopechin mawan gi merin mawan, i syem chil gi chil</t>
+  </si>
+  <si>
+    <t>A happy, unending life with family and friends</t>
+  </si>
+  <si>
+    <t>IRAŊO WANYALO GENO GIMA BAIBUL WACHO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAN WE REALLY BELIEVE WHAT THE BIBLE SAYS?</t>
+  </si>
+  <si>
+    <t>Wani g’atoŋa aryo: Were nyalo timo gima go ochiko,</t>
+  </si>
+  <si>
+    <t>Yes, for at least two reasons: God has the ability to fulfill the promise"</t>
+  </si>
+  <si>
+    <t>I Baibul, Jehova kende am’ilwoŋo ni Were "Majameni jye, rupiri ongoye gima nyalo dhyero go timo"</t>
+  </si>
+  <si>
+    <t>In the Bible, Jehovah God alone is called "the Almighty,for he has unlimited power"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ri ameno, go nyalo loko piny me kabedo maber swa" </t>
+  </si>
+  <si>
+    <t>So he is fully able to keep his promise to change our world for the better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baibul wacho ni: "Ri Were gimoro jye nyalere," </t>
+  </si>
+  <si>
+    <t>As the Bible says, "with God all things are possible"</t>
+  </si>
+  <si>
+    <t>Were mito swa timo gima go ochiko</t>
+  </si>
+  <si>
+    <t>God has the desire to fulfill the promise</t>
+  </si>
+  <si>
+    <t>Giranena, Baibul wacho ni Jehova  mito swa chierino jomotho</t>
+  </si>
+  <si>
+    <t>For example, Jehovah has a longing to restore life to people who have died"</t>
+  </si>
+  <si>
+    <t>Kendo Baibul nyutho ni Nyathi pa Were, Yesu, obotho jotwo</t>
+  </si>
+  <si>
+    <t>The Bible also shows that God’s Son, Jesus, healed the sick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraŋo Yesu otimo ameno? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why did Jesus do so? </t>
+  </si>
+  <si>
+    <t>Rupiri omito</t>
+  </si>
+  <si>
+    <t>Because he wanted to</t>
+  </si>
+  <si>
+    <t>Yesu onyutho kite pa Bamere munyo konyo ji moido jochandere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesus perfectly reflected his Father’s personality by his desire to help those in need</t>
+  </si>
+  <si>
+    <t>Ri ameno, wanyalo ridho ni Jehova kodi Yesu jomito ni wabedi i kwo maber i hongo mabino</t>
+  </si>
+  <si>
+    <t>So we can be sure that both Jehovah and Jesus want to help us to enjoy a happy future!</t>
+  </si>
+  <si>
+    <t>PAR KWOŊ PENJI ME</t>
+  </si>
+  <si>
+    <t>TO THINK ABOUT</t>
+  </si>
+  <si>
+    <t>How will God change our world for the better?</t>
+  </si>
+  <si>
+    <t>Baibul dwoko penji no i MATAYO 6:9, 10 kodi DANIEL 2:44</t>
+  </si>
+  <si>
+    <t>The Bible answers that question at MATTHEW 6:9, 10 and DANIEL 2:44</t>
+  </si>
+  <si>
+    <t>Ndiko je Were am’omiyo meni.</t>
+  </si>
+  <si>
+    <t>All Scripture is inspired of God.</t>
+  </si>
+  <si>
+    <t>ŊEYO ADYERI NO NYALO KONYO WAN NEDI?</t>
+  </si>
+  <si>
+    <t>Wanyalo limo radwok ma penji ma wamaro penjere.</t>
+  </si>
+  <si>
+    <t>Satisfying answers to life’s big questions</t>
+  </si>
+  <si>
+    <t>Wanyalo limo ryeko ma nyalo konyo wan i kwo.</t>
+  </si>
+  <si>
+    <t>Reliable guidance for day-to-day living.</t>
+  </si>
+  <si>
+    <t>Walimo geno.</t>
+  </si>
+  <si>
+    <t>Real hope for the future.</t>
+  </si>
+  <si>
+    <t>CAN WE REALLY BELIEVE WHAT THE BIBLE SAYS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wani g’atoŋa adek: </t>
+  </si>
+  <si>
+    <t>Yes, for at least three reasons:</t>
+  </si>
+  <si>
+    <t>Makere.</t>
+  </si>
+  <si>
+    <t>Amazing harmony.</t>
+  </si>
+  <si>
+    <t>Ji 40 ama jondiko Baibuli i hongo ma romo oro 1,600.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bible was written over a period of 1,600 years by some 40 different people. </t>
+  </si>
+  <si>
+    <t>Joma thoth kwoŋjo jokonenere kir.</t>
+  </si>
+  <si>
+    <t>Most of them never met one another.</t>
+  </si>
+  <si>
+    <t>Kada ameno, Baibuli jye makere wok i chakirok tundo i gike aka luwo kwoŋgimoro achiel.</t>
+  </si>
+  <si>
+    <t>Yet, the entire book is harmonious, with one central theme!</t>
+  </si>
+  <si>
+    <t>Joma jondiko Baibul jobedo joma mwol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honest history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joma ndiko kwoŋgikipiny motimere chon jokimar tucho recho pajo. </t>
+  </si>
+  <si>
+    <t>Secular historians seem quick to cover over the defeats of their people.</t>
+  </si>
+  <si>
+    <t>Kuchiel, joma jondiko Baibul jondiko kir kwoŋrecho pajo won.</t>
+  </si>
+  <si>
+    <t>In contrast, Bible writers candidly recorded both their personal failings and those of their nation.</t>
+  </si>
+  <si>
+    <t>Wach m’otundo i kare.</t>
+  </si>
+  <si>
+    <t>Reliable prophecy.</t>
+  </si>
+  <si>
+    <t>Munyo fuodi odoŋoro 700 gipi, Baibuli owacho ni d’onywol Yesu i tindi ma Yuda milwoŋo ni Bethlehem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some 700 years in advance, the Bible foretold the birth of Jesus in a city of Judah called Bethlehem
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onwyol Yesu kune? </t>
+  </si>
+  <si>
+    <t>Where was Jesus born?</t>
+  </si>
+  <si>
+    <t>Onyowol go i tindi no won!â€‹</t>
+  </si>
+  <si>
+    <t>He was born in the exact city!</t>
+  </si>
+  <si>
+    <t>Nitye wach megi mathoth m’otundo i kare paka Baibuli owacho won.</t>
+  </si>
+  <si>
+    <t>Numerous other Bible prophecies were also fulfilled down to the smallest detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obedo ameno, rupiri Baibuli Wach pa Were</t>
+  </si>
+  <si>
+    <t>But is that not what we would expect of the Word of God?</t>
+  </si>
+  <si>
+    <t>Wach pa Were nyalo konyin nedi?</t>
+  </si>
+  <si>
+    <t>How can God’s Word improve your life?</t>
+  </si>
+  <si>
+    <t>Baibul dwoko penji no i ISAYA 48:17, 18 kodi 2 TIMOTHE 3:16, 17</t>
+  </si>
+  <si>
+    <t>The Bible answers that question at ISAIAH 48:17, 18 and 2 TIMOTHY 3:16, 17</t>
+  </si>
+  <si>
+    <t>JANDIKO MA BAIBUL OBINO OWACO RI WERE NI</t>
+  </si>
+  <si>
+    <t>A BIBLE WRITER SAID TO GOD</t>
+  </si>
+  <si>
+    <t>Miyan niaŋ. . . or perin je obedo adieri.</t>
+  </si>
+  <si>
+    <t>Give me understanding . . . Your word is truth.</t>
+  </si>
+  <si>
+    <t>Baibul dwoko penji pa ji gana gi gana.</t>
+  </si>
+  <si>
+    <t>The Bible is providing answers for millions of people.</t>
+  </si>
+  <si>
+    <t>Websait ma jw.org, nyalo konyin</t>
+  </si>
+  <si>
+    <t>The jw.org website can help you</t>
+  </si>
+  <si>
+    <t>SOMA gikipiny manitie i websait no</t>
+  </si>
+  <si>
+    <t>READ online content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N’iye Baibul i dhudhok ma kalo 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bible in hundreds of languages </t>
+  </si>
+  <si>
+    <t>Radwok ma penji ma ji jomaro penjere</t>
+  </si>
+  <si>
+    <t>Answers to Bible questions</t>
+  </si>
+  <si>
+    <t>N’iye rieko manyalo konyo pecin</t>
+  </si>
+  <si>
+    <t>Help for families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidiyo ma mako kwoŋBaibul Fonji gi wer pa nyithindho </t>
+  </si>
+  <si>
+    <t>Bible-based videos Lessons and songs for children</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rieko manyalo konyo soye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advice for teenagers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitawin Good News From God! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The brochure Good News From God! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitawo What Can the Bible Teach Us? </t>
+  </si>
+  <si>
+    <t>The book What Can the Bible Teach Us?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magazin ma Watchtower kodi Awake!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The magazines The Watchtower and Awake!</t>
+  </si>
+  <si>
+    <t>KWOŊ PENJI ME, MENE  M’IMARO PENJERE?</t>
+  </si>
+  <si>
+    <t>WHICH OF THESE BIG QUESTIONS CONCERNS YOU MOST?</t>
+  </si>
+  <si>
+    <t>Kwo ni g’atoŋa mene?</t>
+  </si>
+  <si>
+    <t>What is the meaning of life?</t>
+  </si>
+  <si>
+    <t>Were amakelo ri wan candirok?</t>
+  </si>
+  <si>
+    <t>Is God to blame for our suffering?</t>
+  </si>
+  <si>
+    <t>Ginaŋo matundo kwoŋdhano k’otho?</t>
+  </si>
+  <si>
+    <t>What happens when you die?</t>
+  </si>
+  <si>
+    <t>Limi radwok ma penji no i websait ma jw</t>
+  </si>
+  <si>
+    <t>Find the Bible’s answers to these questions at jw</t>
+  </si>
+  <si>
+    <t>Konyin ŋeyo ni Were k’amakelo chandirok manitye i piny.</t>
+  </si>
+  <si>
+    <t>Assurance that God does not cause our problems</t>
+  </si>
+  <si>
+    <t>Konyin ŋeyo ni Were kimiti ni wachandere</t>
+  </si>
+  <si>
+    <t>Comfort from knowing that God feels for us when we suffer.</t>
+  </si>
+  <si>
+    <t>Miyin geno ni chandirok jye bino rumo</t>
+  </si>
+  <si>
+    <t>Hope that all suffering will end.</t>
+  </si>
+  <si>
+    <t>Wani g’atoŋa aryo: Were kimiti ni wachandere.</t>
+  </si>
+  <si>
+    <t>for at least two reasons: God hates suffering and injustice.</t>
+  </si>
+  <si>
+    <t>Par paka Jehova winjo ka ji pere jochandere</t>
+  </si>
+  <si>
+    <t>Consider how Jehovah God felt when his people in Bible times were cruelly mistreated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baibul wacho ni: "Go kweyo chuny wan i teko ma waluw’iye jye"</t>
+  </si>
+  <si>
+    <t>The Bible says that he was distressed because of "those who were treating them abusively."</t>
+  </si>
+  <si>
+    <t>Kendo Were dak jonek.</t>
+  </si>
+  <si>
+    <t>God has strong feelings about those who harm others.</t>
+  </si>
+  <si>
+    <t>Baibul wacho ni: "Jonek jokolimi kwo makirum."</t>
+  </si>
+  <si>
+    <t>The Bible says that "hands  that shed innocent bloodâ€ are detestable to him"</t>
+  </si>
+  <si>
+    <t>Were dewo kwoŋ kis dhano.</t>
+  </si>
+  <si>
+    <t>God cares for us as individuals.</t>
+  </si>
+  <si>
+    <t>Jehova mito ni wawachi ri go teko mawan jye rupiri go dewo kwoŋ wan!</t>
+  </si>
+  <si>
+    <t>Not only does each person know  his own plague and his own pain but so does Jehovah</t>
+  </si>
+  <si>
+    <t>Ker pa Jehova chiegin bino wokwany woko gikipiny jye ma kelo ri wan chandirok.</t>
+  </si>
+  <si>
+    <t>Through his Kingdom, Jehovah will soon end the suffering  of each individual.</t>
+  </si>
+  <si>
+    <t>To kada pama, go konyo joma timo gima go mito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the meantime, he tenderly comforts those who sincerely look for him</t>
+  </si>
+  <si>
+    <t>Iraŋo fuodi Were oweyo ji chandirok?</t>
+  </si>
+  <si>
+    <t>Why does God allow suffering?</t>
+  </si>
+  <si>
+    <t>Were ma i polo laketho ker ma kilareyo.</t>
+  </si>
+  <si>
+    <t>The God of heaven will set up a kingdom that will never be destroyed</t>
+  </si>
+  <si>
+    <t>Men Madhumo piny pama obedo apa Ruoth kodi Kristo pere, aka go bino dhumo chil gi chil!</t>
+  </si>
+  <si>
+    <t>A son has been given to us; and the government will rest on his shoulder.</t>
+  </si>
+  <si>
+    <t>Ibino limo adhum maber ma lekonyin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A righteous government that can benefit you personally. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I piny manyien, ilebedo i kwo maber kendo man’iye kisangala.</t>
+  </si>
+  <si>
+    <t>In a coming new world, life in perfect health and happiness</t>
+  </si>
+  <si>
+    <t>Wani g’atoŋa aryo: Yesu onyutho gima ker pa Were letimo.</t>
+  </si>
+  <si>
+    <t>Yes, for at least two reasons: Jesus showed what God’s Kingdom will accomplish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yesu ofuonjo wan kwayo Ker pa Were wobin, kendo gima Were mito wotimere i piny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesus taught his followers to pray for God’s Kingdom to come and for God’s will to be done on earth.</t>
+  </si>
+  <si>
+    <t>Yesu onyutho paka Were ledwoko kwayo no</t>
+  </si>
+  <si>
+    <t>Jesus demonstrated how that prayer will be answered.</t>
+  </si>
+  <si>
+    <t>Munyo Yesu nitye i piny ka, opidho ji moido kech neko jo, obotho jotwo, kendo ochierino jomotho!</t>
+  </si>
+  <si>
+    <t>While on earth, Jesus fed the hungry, healed the sick, and restored life to the dead!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesu mobedo Kere ma ledhumo i Ker pa Were, onyutho nyaka adech gima Ker pa Were letimo ri ji ka Ker no ochako dhumo piny. </t>
+  </si>
+  <si>
+    <t>As the future Ruler of God’s Kingdom, Jesus provided a beautiful preview of what that Kingdom will do for its subjects.</t>
+  </si>
+  <si>
+    <t>Teko manitye i piny nyutho ni Ker pa Were chiegin bino.</t>
+  </si>
+  <si>
+    <t>World conditions confirm that God’s Kingdom will soon come.</t>
+  </si>
+  <si>
+    <t>Yesu owacho ni ka Ker pa Were fuodi k’okelo syem i piny, piny d’obed’iye lweny, kech, kodi teko megi</t>
+  </si>
+  <si>
+    <t>Jesus foretold that just before the Kingdom brings peace to the earth, our world would be plagued with wars, famines, and earthquakes.</t>
+  </si>
+  <si>
+    <t>Teko no won ama waneno konon.</t>
+  </si>
+  <si>
+    <t>We see those very conditions today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ri ameno, wanyalo ridho ni Ker pa Were chiegin bino wokwany woko teko jye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So we can be confident that God’s Kingdom will soon bring an end to all such problems.</t>
+  </si>
+  <si>
+    <t>Kwo ochale nedi ka Ker pa Were ama dhumo piny?</t>
+  </si>
+  <si>
+    <t>What will life be like under the rule of God’s Kingdom?</t>
+  </si>
+  <si>
+    <t>Piny gipi nitie i dhum pa Jaraco.</t>
+  </si>
+  <si>
+    <t>The Evil One controls the whole world.</t>
+  </si>
+  <si>
+    <t>Wuodi Were obino reyo woko tic pa Jwogi.</t>
+  </si>
+  <si>
+    <t>The Son of God came . . . to destroy the devil’s work.</t>
+  </si>
+  <si>
+    <t>Konyin ŋeyo gim’omiyo chandirok dit i piny.</t>
+  </si>
+  <si>
+    <t>Logical explanations for the world’s problems.</t>
+  </si>
+  <si>
+    <t>Konyin ŋeyo ni chandirok bino rumo i piny.</t>
+  </si>
+  <si>
+    <t>Reason to believe that our world will change for the better</t>
+  </si>
+  <si>
+    <t>Wani g’atoŋa adek: Adhum pa Sitan chiegin gik.</t>
+  </si>
+  <si>
+    <t>Yes, for at least three reasons:Satan’s rulership is doomed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jehova chiegin kwanyo woko adhum pa Sitan. </t>
+  </si>
+  <si>
+    <t>Jehovah is determined to bring Satan’s control over mankind to an end.</t>
+  </si>
+  <si>
+    <t>Go ochiko reyo woko Jwogi,’ wokwany woko chandirok jye ma Sitan okelo i piny.</t>
+  </si>
+  <si>
+    <t>He promises to "bring to nothing . . . the Devil and undo all the damage that Satan has caused.</t>
+  </si>
+  <si>
+    <t>Were oyero Yesu Kristo dhumo piny.</t>
+  </si>
+  <si>
+    <t>God has chosen Jesus Christ to rule the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yesu kichale gi Sitan, jadhum ma piny me mager.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesus is the complete opposite of this world’s present cruel, selfish ruler. </t>
+  </si>
+  <si>
+    <t>Ri ameno, adhum pa Yesu k’ochale kodi apa Sitan.</t>
+  </si>
+  <si>
+    <t>So, Jesus’ kingship is different from Satan's</t>
+  </si>
+  <si>
+    <t>Baibul wacho ni Yesu ni gi wor kendo genere.</t>
+  </si>
+  <si>
+    <t>The Bible says Jesus is dependable</t>
+  </si>
+  <si>
+    <t>Were luwo adyeri kende</t>
+  </si>
+  <si>
+    <t>God cannot lie.</t>
+  </si>
+  <si>
+    <t>Baibul wacho ni Were "kinyal twodo."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Bible plainly states: "It is impossible for God to lie."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ka Jehova ochiko timo gimoro, go ripo timo gino! </t>
+  </si>
+  <si>
+    <t>When Jehovah promises to do something, it is as good as done!</t>
+  </si>
+  <si>
+    <t>Jadhum ma piny me . . . ibino ryemo woko.</t>
+  </si>
+  <si>
+    <t>The ruler of this world will be cast out.</t>
+  </si>
+  <si>
+    <t>Kwo ochale nedi i piny, ka jadhum mere okwany woko?</t>
+  </si>
+  <si>
+    <t>What will the world be like after its ruler is removed?</t>
+  </si>
+  <si>
+    <t>Ŋata Dhumo Piny?</t>
+  </si>
+  <si>
+    <t>Who Really Controls the World?_x000D_</t>
+  </si>
+  <si>
+    <t>Jomotho Jonyalo Chierino?</t>
+  </si>
+  <si>
+    <t>Can the Dead Really Live Again?</t>
+  </si>
+  <si>
+    <t>Ji  jobino cerino.</t>
+  </si>
+  <si>
+    <t>There is going to be a resurrection.</t>
+  </si>
+  <si>
+    <t>Kweyo chuny wan ka dhano mawan otho</t>
+  </si>
+  <si>
+    <t>Comfort when loved ones die</t>
+  </si>
+  <si>
+    <t>Wakilwor tho tektek.</t>
+  </si>
+  <si>
+    <t>Freedom from a morbid fear of death.</t>
+  </si>
+  <si>
+    <t>Miyo wan geno ni odoko waleneno ji mawan ma chango jotho</t>
+  </si>
+  <si>
+    <t>A real hope of being reunited with your dead loved ones</t>
+  </si>
+  <si>
+    <t>Wani g’atoŋa adek: Were amochweyo gikipiny jye makwo.</t>
+  </si>
+  <si>
+    <t>Yes, for at least three reasons:God is the Creator of life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baibul wacho ni Jehova a Were ma "miyo ji jye kwo, luya kodi gimoro jye"</t>
+  </si>
+  <si>
+    <t>The Bible calls Jehovah God "the source of life."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ri ameno, chierino dhano motho kinyal dhyero Were mochweyo gikipiny jye makwo.</t>
+  </si>
+  <si>
+    <t>The One who gave life to all living creatures is certainly capable of restoring life to someone who has died.</t>
+  </si>
+  <si>
+    <t>Chango Were ochierino jomotho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God has resurrected humans in the past. </t>
+  </si>
+  <si>
+    <t>Baibul luwo kwoŋji aboro ma chango jocherino.</t>
+  </si>
+  <si>
+    <t>The Bible reports eight instances of humans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jono jobedo nyithindo, jomoti, chwo, kodi mon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were young, old, male, and female who were brought back to life on earth. </t>
+  </si>
+  <si>
+    <t>Jomegi oido nyaka jotho, to nitye ŋata oido ochowo ndelo aŋwen gipi i kalyel!</t>
+  </si>
+  <si>
+    <t>Some had been dead for a short while, but one had been in a tomb for four days!</t>
+  </si>
+  <si>
+    <t>Odoko Were mito swa chierino jomotho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God is eager to do it again. </t>
+  </si>
+  <si>
+    <t>Jehova kimiti ni watho; go lwoŋo tho ni jakwor.</t>
+  </si>
+  <si>
+    <t>Jehovah hates death; he views it as an enemy.</t>
+  </si>
+  <si>
+    <t>Go â€˜mito swa’ chierino jomotho nyaka wokwany woko tho kichutho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He has a longing to conquer that enemy, to undo death by means of the resurrection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go lechierino jomotho odoko jowobedi i piny ka.â€‹</t>
+  </si>
+  <si>
+    <t>He yearns to bring back those who are in his memory and to see them live on earth again.</t>
+  </si>
+  <si>
+    <t>Iraŋo wati to watho?</t>
+  </si>
+  <si>
+    <t>Why do we grow old and die?</t>
+  </si>
+  <si>
+    <t>Ginaŋo Ma Kelo Kisangala i Pecho?</t>
+  </si>
+  <si>
+    <t>What Is the Key to Happy Family Life?</t>
+  </si>
+  <si>
+    <t>Josilwany meno a joma jowinjo wac pa Were to joketho i tim!</t>
+  </si>
+  <si>
+    <t>Happy are those hearing the word of God and keeping it!</t>
+  </si>
+  <si>
+    <t>Pecho bed’iye mar</t>
+  </si>
+  <si>
+    <t>Finding real love.</t>
+  </si>
+  <si>
+    <t>Pecho bed’iye wor</t>
+  </si>
+  <si>
+    <t>Enjoying genuine respect.</t>
+  </si>
+  <si>
+    <t>Jopecho jogenere</t>
+  </si>
+  <si>
+    <t>Having true security.</t>
+  </si>
+  <si>
+    <t>Were amochako pecho.</t>
+  </si>
+  <si>
+    <t>God is the Originator of family life.</t>
+  </si>
+  <si>
+    <t>Baibul wacho ni "pechin jye . . . jonwaŋo nyingi jo kwoŋJehova."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Bible says that "every family . . . owes its name to Jehovah God."</t>
+  </si>
+  <si>
+    <t>Meno nyutho ni Jehova amochako chan ma pecho.</t>
+  </si>
+  <si>
+    <t>In other words, the family unit exists because Jehovah created it.</t>
+  </si>
+  <si>
+    <t>Iraŋo meno obedo gimadwoŋswa?</t>
+  </si>
+  <si>
+    <t>Why is that significant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par kwoŋgiranena me: K’ichamo chiemo mamit t’imito ŋeyo paka otedi chiemo no, ipenjo ŋa? </t>
+  </si>
+  <si>
+    <t>Consider: If you were enjoying a tasty meal and wanted to learn its ingredients, whom would you ask?</t>
+  </si>
+  <si>
+    <t>Ikipenji ŋata otedo?</t>
+  </si>
+  <si>
+    <t>Do you not ask the person who prepared it?</t>
+  </si>
+  <si>
+    <t>I royo achiel, ka wamito ŋeyo gima kelo kisangala i pecho, waripo winjo gima Jehova wacho, rupiri go amochako chan ma pecho.â€‹</t>
+  </si>
+  <si>
+    <t>Likewise, to discover the ingredients for a happy family life, we do well to look to Jehovah, the Originator of the family arrangement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Were dewo kwoŋwin. </t>
+  </si>
+  <si>
+    <t>God cares about you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ber jopecho jowoori ryeko ma Jehova miyo jo, ma nwaŋere i Wach pere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Families are wise to seek Jehovah’s advice, which he provides through his Word. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraŋo? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why? </t>
+  </si>
+  <si>
+    <t>Rupiri go dewo kwoŋwin.</t>
+  </si>
+  <si>
+    <t>Because he cares for you.</t>
+  </si>
+  <si>
+    <t>Jehova maro win swa, amomiyo go miyo win ryeko ma nyalo konyo win!â€‹</t>
+  </si>
+  <si>
+    <t>Jehovah has your best interests at heart and his counsel always works!</t>
+  </si>
+  <si>
+    <t>Inyalo nedi bedo jachwo, dhako, kosa janywol maber?</t>
+  </si>
+  <si>
+    <t>How can you be a good husband, wife, or parent?</t>
+  </si>
+  <si>
+    <t>Iparo Nedi Kwoŋ Baibul?</t>
+  </si>
+  <si>
+    <t>How Do You View the Bible?</t>
+  </si>
+  <si>
+    <t>Kwo Ochale Nedi i Hongo Mabino?</t>
+  </si>
+  <si>
+    <t>How Do You View the Future?</t>
+  </si>
+  <si>
+    <t>Chandirok Orumi?</t>
+  </si>
+  <si>
+    <t>Will Suffering Ever End?</t>
+  </si>
+  <si>
+    <t>Wanyalo Limo Kune Radwok ma Penji ma Wamaro Penjere?</t>
+  </si>
+  <si>
+    <t>Where Can We Find Answers to Life’s Big Questions?</t>
+  </si>
+  <si>
+    <t>Ker pa Were a Ginaŋo?</t>
+  </si>
+  <si>
+    <t>What Is the Kingdom of God?</t>
+  </si>
+  <si>
+    <t>Iraŋo Ber Ni Ifuonjere Baibul?</t>
+  </si>
+  <si>
+    <t>Jehovah Witness website, books and brochures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Jopadhola jowotan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>ma thurin gimawiloka.</t>
+    </r>
+  </si>
+  <si>
+    <t>I address this to all Jopadhola wherever they are (both near and far).</t>
+  </si>
+  <si>
+    <t>Amotho wijojie inyingi ker mawan ma Tieng Adhola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I greet you all in the name of our institution, "Tieng Adhola".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thenethene mamako kwong kwomawan tektelmere dhodhoki mawaoro obedo gimadwong swa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Issues that affect our lives embrace among others, the spoken language including proverbs and similes.</t>
+  </si>
+  <si>
+    <t>Kinyaka riluwo aluwa kende to, ri ginyagenda mopokere, opokere, paka agechin gi apora apora ma tito gimiluwo kwonge.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Many of our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">children chose to marry outside the Adhola tribe. </t>
+    </r>
+  </si>
+  <si>
+    <t>Ma ti me, nyithindho mawan jonywomere ginonin mopokere opokere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a result they chose to use foreign languages i.e. English, Luganda or Kiswahili in their homes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ameno megi kwong Jo joyero oro Dholuzungu, Dhomagara, kosa Dhokiswahili pecho pajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This makes it difficult for their children to learn and speak Dhopadhola, let alone understand the hidden meaning of proverbs. </t>
+  </si>
+  <si>
+    <t>AGECHA GI APORA-PORA MA DHOPADHOLA</t>
+  </si>
+  <si>
+    <t>DHOPADHOLAPROVERBS AND SIMILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ri ameno, wanyalo rwenyo dhodhok mawan ma Dhopadhola, ropiri kiluwi ipechin madit. </t>
+  </si>
+  <si>
+    <t>Failure to use our local language of Dhopadhola may lead to its extinction</t>
+  </si>
+  <si>
+    <t>Afwoyo winjo kwong chan manyien ma Gavument owodho ni fwonjo wok pama wochak iclass ma pinyi gidhodhok anywola  rnaiadech no.</t>
+  </si>
+  <si>
+    <t>I hail government proposal to have local languages used and taught in early childhood at schools.</t>
+  </si>
+  <si>
+    <t>Adhola similes and proverbs</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14562,6 +15523,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -14608,7 +15573,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14661,6 +15626,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14981,10 +15952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2208"/>
+  <dimension ref="A1:B2365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2201" workbookViewId="0">
-      <selection activeCell="A2201" sqref="A2201"/>
+    <sheetView tabSelected="1" topLeftCell="A2347" workbookViewId="0">
+      <selection activeCell="A2368" sqref="A2368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32648,6 +33619,1262 @@
       </c>
       <c r="B2208" s="2" t="s">
         <v>4410</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2">
+      <c r="A2209" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2">
+      <c r="A2210" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2">
+      <c r="A2211" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2">
+      <c r="A2212" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2">
+      <c r="A2213" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2">
+      <c r="A2214" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2">
+      <c r="A2215" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2">
+      <c r="A2216" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2">
+      <c r="A2217" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2">
+      <c r="A2218" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2">
+      <c r="A2219" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2">
+      <c r="A2220" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2">
+      <c r="A2221" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2">
+      <c r="A2222" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2">
+      <c r="A2223" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2">
+      <c r="A2224" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2">
+      <c r="A2225" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2">
+      <c r="A2226" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2">
+      <c r="A2227" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2">
+      <c r="A2228" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2">
+      <c r="A2229" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2">
+      <c r="A2230" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2">
+      <c r="A2231" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2">
+      <c r="A2232" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2">
+      <c r="A2233" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2">
+      <c r="A2234" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2">
+      <c r="A2235" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2">
+      <c r="A2236" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2">
+      <c r="A2237" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2">
+      <c r="A2238" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2">
+      <c r="A2239" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2">
+      <c r="A2240" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2">
+      <c r="A2241" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2">
+      <c r="A2242" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2">
+      <c r="A2243" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2">
+      <c r="A2244" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2">
+      <c r="A2245" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2">
+      <c r="A2246" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2" ht="45">
+      <c r="A2247" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B2247" s="2" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2">
+      <c r="A2248" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2">
+      <c r="A2249" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2">
+      <c r="A2250" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2">
+      <c r="A2251" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2">
+      <c r="A2252" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2">
+      <c r="A2253" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2">
+      <c r="A2254" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2">
+      <c r="A2255" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2">
+      <c r="A2256" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2">
+      <c r="A2257" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2">
+      <c r="A2258" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2">
+      <c r="A2259" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2">
+      <c r="A2260" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2">
+      <c r="A2261" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2">
+      <c r="A2262" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2">
+      <c r="A2263" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2">
+      <c r="A2264" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2">
+      <c r="A2265" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2">
+      <c r="A2266" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2">
+      <c r="A2267" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2">
+      <c r="A2268" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2">
+      <c r="A2269" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2">
+      <c r="A2270" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2">
+      <c r="A2271" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2">
+      <c r="A2272" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2">
+      <c r="A2273" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2">
+      <c r="A2274" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2">
+      <c r="A2275" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2">
+      <c r="A2276" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2">
+      <c r="A2277" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2">
+      <c r="A2278" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2">
+      <c r="A2279" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2">
+      <c r="A2280" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2">
+      <c r="A2281" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2">
+      <c r="A2282" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2">
+      <c r="A2283" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2">
+      <c r="A2284" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2">
+      <c r="A2285" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2">
+      <c r="A2286" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2">
+      <c r="A2287" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2">
+      <c r="A2288" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2">
+      <c r="A2289" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2">
+      <c r="A2290" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2">
+      <c r="A2291" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2">
+      <c r="A2292" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2">
+      <c r="A2293" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2">
+      <c r="A2294" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2">
+      <c r="A2295" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2">
+      <c r="A2296" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2">
+      <c r="A2297" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2">
+      <c r="A2298" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2">
+      <c r="A2299" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2">
+      <c r="A2300" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2">
+      <c r="A2301" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2">
+      <c r="A2302" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2">
+      <c r="A2303" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2">
+      <c r="A2304" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2">
+      <c r="A2305" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2">
+      <c r="A2306" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2">
+      <c r="A2307" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2">
+      <c r="A2308" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2">
+      <c r="A2309" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2">
+      <c r="A2310" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2">
+      <c r="A2311" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2">
+      <c r="A2312" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2">
+      <c r="A2313" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2">
+      <c r="A2314" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2">
+      <c r="A2315" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2">
+      <c r="A2316" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2">
+      <c r="A2317" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2">
+      <c r="A2318" t="s">
+        <v>4627</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2">
+      <c r="A2319" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2">
+      <c r="A2320" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2">
+      <c r="A2321" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2">
+      <c r="A2322" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2">
+      <c r="A2323" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2">
+      <c r="A2324" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2">
+      <c r="A2325" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2">
+      <c r="A2326" t="s">
+        <v>4643</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2">
+      <c r="A2327" t="s">
+        <v>4645</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2">
+      <c r="A2328" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2">
+      <c r="A2329" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2">
+      <c r="A2330" t="s">
+        <v>4651</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2">
+      <c r="A2331" t="s">
+        <v>4653</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2">
+      <c r="A2332" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2">
+      <c r="A2333" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2">
+      <c r="A2334" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2">
+      <c r="A2335" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2">
+      <c r="A2336" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2">
+      <c r="A2337" t="s">
+        <v>4665</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2">
+      <c r="A2338" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2">
+      <c r="A2339" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2">
+      <c r="A2340" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2">
+      <c r="A2341" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2">
+      <c r="A2342" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2">
+      <c r="A2343" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2">
+      <c r="A2344" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2">
+      <c r="A2345" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2">
+      <c r="A2346" t="s">
+        <v>4683</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2">
+      <c r="A2347" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2">
+      <c r="A2348" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2">
+      <c r="A2349" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2">
+      <c r="A2350" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2">
+      <c r="A2351" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2">
+      <c r="A2352" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2">
+      <c r="A2353" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2">
+      <c r="A2354" t="s">
+        <v>4699</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2">
+      <c r="A2355" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2">
+      <c r="A2356" t="s">
+        <v>4703</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2">
+      <c r="A2357" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2">
+      <c r="A2358" s="24" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2">
+      <c r="A2359" s="24" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2">
+      <c r="A2360" s="24" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2">
+      <c r="A2361" s="24" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B2361" s="24" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2">
+      <c r="A2362" s="24" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B2362" s="24" t="s">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2">
+      <c r="A2363" s="24" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B2363" s="24" t="s">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2" ht="30">
+      <c r="A2364" s="25" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B2364" s="25" t="s">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2" ht="30">
+      <c r="A2365" s="25" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B2365" s="25" t="s">
+        <v>4722</v>
       </c>
     </row>
   </sheetData>
@@ -32668,15 +34895,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
@@ -32748,6 +34975,34 @@
       </c>
       <c r="C6">
         <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C7">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17">
+        <f>2354-SUM(C2:C6)</f>
+        <v>1581</v>
       </c>
     </row>
   </sheetData>

--- a/Combined.xlsx
+++ b/Combined.xlsx
@@ -25544,7 +25544,7 @@
   <dimension ref="A1:B5449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2352" workbookViewId="0">
-      <selection activeCell="A2364" sqref="A2364"/>
+      <selection activeCell="B2365" sqref="B2365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
